--- a/Trabajo_2/Fit_model_analytic.xlsx
+++ b/Trabajo_2/Fit_model_analytic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\GGE\Trabajos_GGE\Trabajo_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/anaisabel_soria_alumnos_upm_es/Documents/Escritorio/UPM/2_SEMESTRE/GGE/Trabajos_GGE/Trabajo_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE0A6A6-53F6-45A6-89CA-A3A75BDD2191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{7DE0A6A6-53F6-45A6-89CA-A3A75BDD2191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BA6DBC2F-AAB3-4E3B-9DEE-D0702B82F0AF}"/>
   <bookViews>
-    <workbookView xWindow="1944" yWindow="768" windowWidth="16404" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="1390" windowWidth="24290" windowHeight="15860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KyH" sheetId="1" r:id="rId1"/>
@@ -385,12 +385,12 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -412,7 +412,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -423,7 +423,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -434,7 +434,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -445,7 +445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -456,7 +456,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -467,7 +467,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -478,7 +478,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -499,12 +499,12 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -526,7 +526,7 @@
         <v>4.45E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -537,7 +537,7 @@
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -548,7 +548,7 @@
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -559,7 +559,7 @@
         <v>-1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -570,7 +570,7 @@
         <v>-3.9E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -581,7 +581,7 @@
         <v>-1.43E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -592,7 +592,7 @@
         <v>5.62E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>

--- a/Trabajo_2/Fit_model_analytic.xlsx
+++ b/Trabajo_2/Fit_model_analytic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/anaisabel_soria_alumnos_upm_es/Documents/Escritorio/UPM/2_SEMESTRE/GGE/Trabajos_GGE/Trabajo_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{7DE0A6A6-53F6-45A6-89CA-A3A75BDD2191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BA6DBC2F-AAB3-4E3B-9DEE-D0702B82F0AF}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{7DE0A6A6-53F6-45A6-89CA-A3A75BDD2191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4464D85F-B8D3-4D5D-A381-E313F1AC4E7F}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="1390" windowWidth="24290" windowHeight="15860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Modelo</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>CTJ30</t>
+  </si>
+  <si>
+    <t>ATJ</t>
   </si>
 </sst>
 </file>
@@ -382,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,6 +495,28 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>27.5</v>
+      </c>
+      <c r="C10">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>27.4</v>
+      </c>
+      <c r="C11">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -496,10 +524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7486EAD-9E47-4B39-BC33-39725078BB05}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,6 +631,28 @@
         <v>0.747</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>27.5</v>
+      </c>
+      <c r="C10">
+        <v>6.1500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>27.4</v>
+      </c>
+      <c r="C11">
+        <v>1.9099999999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Trabajo_2/Fit_model_analytic.xlsx
+++ b/Trabajo_2/Fit_model_analytic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/anaisabel_soria_alumnos_upm_es/Documents/Escritorio/UPM/2_SEMESTRE/GGE/Trabajos_GGE/Trabajo_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{7DE0A6A6-53F6-45A6-89CA-A3A75BDD2191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4464D85F-B8D3-4D5D-A381-E313F1AC4E7F}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{7DE0A6A6-53F6-45A6-89CA-A3A75BDD2191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{14B9804A-D385-45FA-BF74-8E22F0E8FE1B}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="1390" windowWidth="24290" windowHeight="15860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -481,7 +481,7 @@
         <v>29.8</v>
       </c>
       <c r="C8">
-        <v>0.99399999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -595,7 +595,7 @@
         <v>6.94</v>
       </c>
       <c r="C6">
-        <v>-3.9E-2</v>
+        <v>-3.9100000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -625,7 +625,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>9.33</v>
+        <v>9.34</v>
       </c>
       <c r="C9">
         <v>0.747</v>
@@ -639,7 +639,7 @@
         <v>27.5</v>
       </c>
       <c r="C10">
-        <v>6.1500000000000001E-3</v>
+        <v>6.1599999999999997E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">

--- a/Trabajo_2/Fit_model_analytic.xlsx
+++ b/Trabajo_2/Fit_model_analytic.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/anaisabel_soria_alumnos_upm_es/Documents/Escritorio/UPM/2_SEMESTRE/GGE/Trabajos_GGE/Trabajo_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{7DE0A6A6-53F6-45A6-89CA-A3A75BDD2191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{14B9804A-D385-45FA-BF74-8E22F0E8FE1B}"/>
+  <xr:revisionPtr revIDLastSave="483" documentId="13_ncr:1_{7DE0A6A6-53F6-45A6-89CA-A3A75BDD2191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F46B4D87-3DAB-496D-AE23-B7BA792AFD54}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="1390" windowWidth="24290" windowHeight="15860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="1390" windowWidth="24290" windowHeight="15860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KyH" sheetId="1" r:id="rId1"/>
     <sheet name="Das" sheetId="2" r:id="rId2"/>
+    <sheet name="PyC" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>Modelo</t>
   </si>
@@ -71,6 +72,18 @@
   </si>
   <si>
     <t>ATJ</t>
+  </si>
+  <si>
+    <t>4S1P</t>
+  </si>
+  <si>
+    <t>Fabricante</t>
+  </si>
+  <si>
+    <t>eta1</t>
+  </si>
+  <si>
+    <t>eta2</t>
   </si>
 </sst>
 </file>
@@ -388,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,6 +530,17 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -524,10 +548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7486EAD-9E47-4B39-BC33-39725078BB05}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,6 +677,164 @@
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>30.9</v>
+      </c>
+      <c r="C12">
+        <v>-1.67E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242CB890-B6FB-4165-8F06-E943B4663A3C}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C2">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C3">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2.37</v>
+      </c>
+      <c r="C4">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3.63</v>
+      </c>
+      <c r="C5">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2.76</v>
+      </c>
+      <c r="C6">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>2.96</v>
+      </c>
+      <c r="C7">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>3.04</v>
+      </c>
+      <c r="C8">
+        <v>-1.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1.06</v>
+      </c>
+      <c r="C9">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>2.98</v>
+      </c>
+      <c r="C10">
+        <v>-20.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>2.4</v>
+      </c>
+      <c r="C11">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>6.27</v>
+      </c>
+      <c r="C12">
+        <v>1.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Trabajo_2/Fit_model_analytic.xlsx
+++ b/Trabajo_2/Fit_model_analytic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/anaisabel_soria_alumnos_upm_es/Documents/Escritorio/UPM/2_SEMESTRE/GGE/Trabajos_GGE/Trabajo_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/daniel_delrio_velilla_alumnos_upm_es/Documents/MUSE/S2/GGE/Trabajos_GGE/Trabajo_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="483" documentId="13_ncr:1_{7DE0A6A6-53F6-45A6-89CA-A3A75BDD2191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F46B4D87-3DAB-496D-AE23-B7BA792AFD54}"/>
+  <xr:revisionPtr revIDLastSave="572" documentId="13_ncr:1_{7DE0A6A6-53F6-45A6-89CA-A3A75BDD2191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C820BE6B-6391-4A4F-A33D-620C5F063323}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="1390" windowWidth="24290" windowHeight="15860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KyH" sheetId="1" r:id="rId1"/>
@@ -404,12 +404,12 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -431,7 +431,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -442,7 +442,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -453,7 +453,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -475,7 +475,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -486,7 +486,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -497,7 +497,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -508,7 +508,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -519,7 +519,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -530,7 +530,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -550,13 +550,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7486EAD-9E47-4B39-BC33-39725078BB05}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -578,7 +578,7 @@
         <v>4.45E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -589,7 +589,7 @@
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -600,7 +600,7 @@
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -611,7 +611,7 @@
         <v>-1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -622,7 +622,7 @@
         <v>-3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -633,7 +633,7 @@
         <v>-1.43E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -644,7 +644,7 @@
         <v>5.62E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -655,7 +655,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -666,7 +666,7 @@
         <v>6.1599999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -677,7 +677,7 @@
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -695,15 +695,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242CB890-B6FB-4165-8F06-E943B4663A3C}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -714,7 +714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -722,10 +722,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="C2">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -733,10 +733,13 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C3">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.54</v>
+      </c>
+      <c r="D3">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -744,10 +747,16 @@
         <v>2.37</v>
       </c>
       <c r="C4">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.54</v>
+      </c>
+      <c r="D4">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E4">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -755,10 +764,19 @@
         <v>3.63</v>
       </c>
       <c r="C5">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.54</v>
+      </c>
+      <c r="D5">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E5">
+        <v>2.91</v>
+      </c>
+      <c r="F5">
+        <v>-4.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -766,10 +784,22 @@
         <v>2.76</v>
       </c>
       <c r="C6">
+        <v>2.54</v>
+      </c>
+      <c r="D6">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E6">
+        <v>2.91</v>
+      </c>
+      <c r="F6">
+        <v>-4.07</v>
+      </c>
+      <c r="G6">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -777,10 +807,25 @@
         <v>2.96</v>
       </c>
       <c r="C7">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.54</v>
+      </c>
+      <c r="D7">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E7">
+        <v>2.91</v>
+      </c>
+      <c r="F7">
+        <v>-4.07</v>
+      </c>
+      <c r="G7">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H7">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -788,10 +833,28 @@
         <v>3.04</v>
       </c>
       <c r="C8">
-        <v>-1.61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.54</v>
+      </c>
+      <c r="D8">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E8">
+        <v>2.91</v>
+      </c>
+      <c r="F8">
+        <v>-4.07</v>
+      </c>
+      <c r="G8">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H8">
+        <v>3.11</v>
+      </c>
+      <c r="I8">
+        <v>-3.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -802,7 +865,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -813,7 +876,7 @@
         <v>-20.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -824,7 +887,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
